--- a/Resources/pandas_cheat_sheet.xlsx
+++ b/Resources/pandas_cheat_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcort\bootcamp\School_District_Analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2481D0C9-62E2-4C4B-94E3-6B6D08CBE2D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F2B51-6E58-44BF-BCE0-B4B9254C28C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="-13695" windowWidth="11025" windowHeight="15690" activeTab="1" xr2:uid="{E67E81BA-80AC-42E9-9E5C-A9A2309DB558}"/>
+    <workbookView xWindow="46455" yWindow="60" windowWidth="11025" windowHeight="15690" activeTab="1" xr2:uid="{E67E81BA-80AC-42E9-9E5C-A9A2309DB558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -391,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -514,19 +520,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -539,6 +553,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDEBF7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -593,7 +612,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C84FF05-0246-4639-B6E3-2D8773E40840}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C84FF05-0246-4639-B6E3-2D8773E40840}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K13:L16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -1157,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB5665F-799D-49FD-8954-67C9C00235B5}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,66 +1534,66 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1723,9 +1742,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B48 B51:B1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Commit Your Code">
+      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B50">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Commit Your Code">
-      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/pandas_cheat_sheet.xlsx
+++ b/Resources/pandas_cheat_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcort\bootcamp\School_District_Analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F2B51-6E58-44BF-BCE0-B4B9254C28C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B8E62B-50E6-429C-AD5C-898C7D8E4E39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46455" yWindow="60" windowWidth="11025" windowHeight="15690" activeTab="1" xr2:uid="{E67E81BA-80AC-42E9-9E5C-A9A2309DB558}"/>
+    <workbookView xWindow="46455" yWindow="-90" windowWidth="11025" windowHeight="15690" activeTab="1" xr2:uid="{E67E81BA-80AC-42E9-9E5C-A9A2309DB558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -359,15 +359,6 @@
   </si>
   <si>
     <t>4.13.3: Commit Your Final Code</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>memo</t>
   </si>
 </sst>
 </file>
@@ -506,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -526,6 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB5665F-799D-49FD-8954-67C9C00235B5}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,132 +1178,129 @@
     <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>45</v>
@@ -1322,7 +1311,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,7 +1319,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1338,7 +1327,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1346,15 +1335,15 @@
         <v>46</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1362,7 +1351,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1370,7 +1359,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1367,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1386,7 +1375,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1394,7 +1383,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1402,7 +1391,7 @@
         <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1410,15 +1399,15 @@
         <v>51</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1426,7 +1415,7 @@
         <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,7 +1423,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1431,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1450,7 +1439,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1447,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1455,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1463,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,7 +1471,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1490,7 +1479,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1498,15 +1487,15 @@
         <v>61</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,31 +1503,31 @@
         <v>72</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>75</v>
+      <c r="B43" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>76</v>
+      <c r="B44" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1535,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +1543,7 @@
         <v>72</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,15 +1551,15 @@
         <v>72</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,63 +1567,63 @@
         <v>81</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B52" t="s">
-        <v>86</v>
+      <c r="B52" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B53" t="s">
-        <v>87</v>
+      <c r="B53" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B54" t="s">
-        <v>88</v>
+      <c r="B54" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B55" t="s">
-        <v>89</v>
+      <c r="B55" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1631,7 @@
         <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1639,7 @@
         <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1647,7 @@
         <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,15 +1655,15 @@
         <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1671,7 @@
         <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1690,7 +1679,7 @@
         <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1687,7 @@
         <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,15 +1695,15 @@
         <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +1711,7 @@
         <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,26 +1719,18 @@
         <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B48 B51:B1048576">
+  <conditionalFormatting sqref="B50:B1048576 B1:B47">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Commit Your Code">
       <formula>NOT(ISERROR(SEARCH("Commit Your Code",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B50">
+  <conditionalFormatting sqref="B48:B49">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Commit Your Code">
-      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/pandas_cheat_sheet.xlsx
+++ b/Resources/pandas_cheat_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcort\bootcamp\School_District_Analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B8E62B-50E6-429C-AD5C-898C7D8E4E39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51494A-B1B2-422C-B8FE-A0EF02C23306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46455" yWindow="-90" windowWidth="11025" windowHeight="15690" activeTab="1" xr2:uid="{E67E81BA-80AC-42E9-9E5C-A9A2309DB558}"/>
+    <workbookView xWindow="17655" yWindow="0" windowWidth="11025" windowHeight="15600" activeTab="1" xr2:uid="{E67E81BA-80AC-42E9-9E5C-A9A2309DB558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1168,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB5665F-799D-49FD-8954-67C9C00235B5}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,42 +1629,42 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="17" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1723,14 +1733,19 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B50:B1048576 B1:B47">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Commit Your Code">
+  <conditionalFormatting sqref="B50:B55 B1:B47 B61:B1048576">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Commit Your Code">
       <formula>NOT(ISERROR(SEARCH("Commit Your Code",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Commit Your Code">
+      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Commit Your Code">
-      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/pandas_cheat_sheet.xlsx
+++ b/Resources/pandas_cheat_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcort\bootcamp\School_District_Analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51494A-B1B2-422C-B8FE-A0EF02C23306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFAF66-FD63-4460-904E-626333523B00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17655" yWindow="0" windowWidth="11025" windowHeight="15600" activeTab="1" xr2:uid="{E67E81BA-80AC-42E9-9E5C-A9A2309DB558}"/>
   </bookViews>
@@ -522,7 +522,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1179,7 +1189,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,42 +1679,42 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="17" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1733,19 +1743,24 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B50:B55 B1:B47 B61:B1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Commit Your Code">
+  <conditionalFormatting sqref="B50:B55 B1:B47 B66:B1048576">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Commit Your Code">
       <formula>NOT(ISERROR(SEARCH("Commit Your Code",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Commit Your Code">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Commit Your Code">
       <formula>NOT(ISERROR(SEARCH("Commit Your Code",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Commit Your Code">
+      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B65">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Commit Your Code">
-      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B60)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Commit Your Code",B61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
